--- a/Non-public/FlagListing.xlsx
+++ b/Non-public/FlagListing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="135">
   <si>
     <t>Flag #</t>
   </si>
@@ -419,6 +419,9 @@
   <si>
     <t>TechUnderground</t>
   </si>
+  <si>
+    <t>Activate race puzzle</t>
+  </si>
 </sst>
 </file>
 
@@ -770,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K7998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,8 +2329,12 @@
       <c r="B113" s="2">
         <v>7889</v>
       </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
+      <c r="C113" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="E113" s="2"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
